--- a/data_excel/test_data.xlsx
+++ b/data_excel/test_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Power-abs</t>
   </si>
@@ -41,13 +41,24 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>Блок-станции</t>
+  </si>
+  <si>
+    <t>Вода</t>
+  </si>
+  <si>
+    <t>Солнце</t>
+  </si>
+  <si>
+    <t>Ветер</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="dd/mm/yy\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -80,7 +91,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -103,11 +114,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -118,10 +149,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -404,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,10 +450,10 @@
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -443,557 +475,857 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43864</v>
       </c>
       <c r="B2" s="2">
         <v>3973.094482421875</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>0.67009027515223396</v>
       </c>
-      <c r="D2" s="5">
-        <v>1107.321375</v>
+      <c r="D2" s="2">
+        <v>972.71458408976878</v>
       </c>
       <c r="E2" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.46445659603554335</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.2912726377004059</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43864.041666666664</v>
       </c>
       <c r="B3" s="2">
         <v>3747.284912109375</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>0.63200590596037043</v>
       </c>
-      <c r="D3" s="5">
-        <v>1107.321375</v>
+      <c r="D3" s="2">
+        <v>966.55516882977702</v>
       </c>
       <c r="E3" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.46445659603554335</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.2707634969423709</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43864.083333333336</v>
       </c>
       <c r="B4" s="2">
         <v>3629.22705078125</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>0.61209461889401673</v>
       </c>
-      <c r="D4" s="5">
-        <v>1107.321375</v>
+      <c r="D4" s="2">
+        <v>978.71296888544703</v>
       </c>
       <c r="E4" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.46445659603554335</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.25011512964133098</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43864.125</v>
       </c>
       <c r="B5" s="2">
         <v>3705.92041015625</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>0.62502949233166438</v>
       </c>
-      <c r="D5" s="5">
-        <v>1107.321375</v>
+      <c r="D5" s="2">
+        <v>988.51569840053196</v>
       </c>
       <c r="E5" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.46445659603554335</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.23376136570528955</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43864.166666666664</v>
       </c>
       <c r="B6" s="2">
         <v>3699.0205078125</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>0.62386577536482579</v>
       </c>
-      <c r="D6" s="5">
-        <v>1107.321375</v>
+      <c r="D6" s="2">
+        <v>995.85264893081603</v>
       </c>
       <c r="E6" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.46445659603554335</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.22229124050849816</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43864.208333333336</v>
       </c>
       <c r="B7" s="2">
         <v>3722.72802734375</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>0.62786421495798361</v>
       </c>
-      <c r="D7" s="5">
-        <v>1107.321375</v>
+      <c r="D7" s="2">
+        <v>955.09181265145924</v>
       </c>
       <c r="E7" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.46445659603554335</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.21121737547256703</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43864.25</v>
       </c>
       <c r="B8" s="2">
         <v>3898.36767578125</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>0.65748707463822531</v>
       </c>
-      <c r="D8" s="5">
-        <v>1107.321375</v>
+      <c r="D8" s="2">
+        <v>938.21380711059953</v>
       </c>
       <c r="E8" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.46445659603554335</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.20910755785933832</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1.0799374077094307E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43864.291666666664</v>
       </c>
       <c r="B9" s="2">
         <v>4476.2412109375</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>0.75494950295178609</v>
       </c>
-      <c r="D9" s="5">
-        <v>1107.321375</v>
+      <c r="D9" s="2">
+        <v>1037.4387663397797</v>
       </c>
       <c r="E9" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.77409432672590561</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.20137512985552569</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K9" s="5">
+        <v>4.6341803862796523E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43864.333333333336</v>
       </c>
       <c r="B10" s="2">
         <v>5082.01123046875</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>0.85711686918548124</v>
       </c>
-      <c r="D10" s="5">
-        <v>1107.321375</v>
+      <c r="D10" s="2">
+        <v>1207.3460349985703</v>
       </c>
       <c r="E10" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.77409432672590561</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.20896833131633341</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K10" s="5">
+        <v>7.9459884365885733E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43864.375</v>
       </c>
       <c r="B11" s="2">
         <v>5264.48828125</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>0.88789290476881844</v>
       </c>
-      <c r="D11" s="5">
-        <v>1107.321375</v>
+      <c r="D11" s="2">
+        <v>1216.5750934845387</v>
       </c>
       <c r="E11" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.77409432672590561</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.18176560675998416</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K11" s="5">
+        <v>9.5673638507482422E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43864.416666666664</v>
       </c>
       <c r="B12" s="2">
         <v>5352.81103515625</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>0.90278915723124797</v>
       </c>
-      <c r="D12" s="5">
-        <v>1107.321375</v>
+      <c r="D12" s="2">
+        <v>1205.222445750436</v>
       </c>
       <c r="E12" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.77409432672590561</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.13631349533591081</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K12" s="5">
+        <v>9.4894908131855207E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43864.458333333336</v>
       </c>
       <c r="B13" s="2">
         <v>5344.8740234375</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>0.90145052448792051</v>
       </c>
-      <c r="D13" s="5">
-        <v>1107.321375</v>
+      <c r="D13" s="2">
+        <v>1229.6487543059914</v>
       </c>
       <c r="E13" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.77409432672590561</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.11420860420035769</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K13" s="5">
+        <v>8.8253660400091097E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43864.5</v>
       </c>
       <c r="B14" s="2">
         <v>5154.92041015625</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>0.86941351415430157</v>
       </c>
-      <c r="D14" s="5">
-        <v>1107.321375</v>
+      <c r="D14" s="2">
+        <v>1218.1048828955168</v>
       </c>
       <c r="E14" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.77409432672590561</v>
+      </c>
+      <c r="I14" s="5">
+        <v>9.0818544975528256E-2</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K14" s="5">
+        <v>8.4646522528082052E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43864.541666666664</v>
       </c>
       <c r="B15" s="2">
         <v>5313.62109375</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>0.89617949850395129</v>
       </c>
-      <c r="D15" s="5">
-        <v>1107.321375</v>
+      <c r="D15" s="2">
+        <v>1215.0956260936582</v>
       </c>
       <c r="E15" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.77409432672590561</v>
+      </c>
+      <c r="I15" s="5">
+        <v>8.0933460422177722E-2</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K15" s="5">
+        <v>3.7158662640777551E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43864.583333333336</v>
       </c>
       <c r="B16" s="2">
         <v>5401.7626953125</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>0.91104519835193765</v>
       </c>
-      <c r="D16" s="5">
-        <v>1107.321375</v>
+      <c r="D16" s="2">
+        <v>1235.8282983740223</v>
       </c>
       <c r="E16" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.77409432672590561</v>
+      </c>
+      <c r="I16" s="5">
+        <v>8.7648463688646594E-2</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43864.625</v>
       </c>
       <c r="B17" s="2">
         <v>5244.20654296875</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>0.88447224723208551</v>
       </c>
-      <c r="D17" s="5">
-        <v>1107.321375</v>
+      <c r="D17" s="2">
+        <v>1240.9007579998979</v>
       </c>
       <c r="E17" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.77409432672590561</v>
+      </c>
+      <c r="I17" s="5">
+        <v>9.3324622749617128E-2</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43864.666666666664</v>
       </c>
       <c r="B18" s="2">
         <v>5104.19287109375</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>0.8608579585895958</v>
       </c>
-      <c r="D18" s="5">
-        <v>1107.321375</v>
+      <c r="D18" s="2">
+        <v>1269.0106384266251</v>
       </c>
       <c r="E18" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.77409432672590561</v>
+      </c>
+      <c r="I18" s="5">
+        <v>8.9104987523159804E-2</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43864.708333333336</v>
       </c>
       <c r="B19" s="2">
         <v>5002.54833984375</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>0.84371489486071261</v>
       </c>
-      <c r="D19" s="5">
-        <v>1107.321375</v>
+      <c r="D19" s="2">
+        <v>1191.806595192317</v>
       </c>
       <c r="E19" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.77409432672590561</v>
+      </c>
+      <c r="I19" s="5">
+        <v>9.0743576836987139E-2</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43864.75</v>
       </c>
       <c r="B20" s="2">
         <v>4901.93896484375</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>0.82674641750007638</v>
       </c>
-      <c r="D20" s="5">
-        <v>1107.321375</v>
+      <c r="D20" s="2">
+        <v>1196.1745465368208</v>
       </c>
       <c r="E20" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.77409432672590561</v>
+      </c>
+      <c r="I20" s="5">
+        <v>9.9664785323380412E-2</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43864.791666666664</v>
       </c>
       <c r="B21" s="2">
         <v>5075.39111328125</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>0.85600033994930569</v>
       </c>
-      <c r="D21" s="5">
-        <v>1107.321375</v>
+      <c r="D21" s="2">
+        <v>1191.6053071119252</v>
       </c>
       <c r="E21" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.77409432672590561</v>
+      </c>
+      <c r="I21" s="5">
+        <v>9.5766442119242179E-2</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43864.833333333336</v>
       </c>
       <c r="B22" s="2">
         <v>5135.54541015625</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>0.86614578439390577</v>
       </c>
-      <c r="D22" s="5">
-        <v>1107.321375</v>
+      <c r="D22" s="2">
+        <v>1148.1975325754147</v>
       </c>
       <c r="E22" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.69668489405331513</v>
+      </c>
+      <c r="I22" s="5">
+        <v>9.7672774785002081E-2</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43864.875</v>
       </c>
       <c r="B23" s="2">
         <v>5013.4619140625</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>0.84555554576481062</v>
       </c>
-      <c r="D23" s="5">
-        <v>1107.321375</v>
+      <c r="D23" s="2">
+        <v>1023.3888583284261</v>
       </c>
       <c r="E23" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.54186602870813394</v>
+      </c>
+      <c r="I23" s="5">
+        <v>9.1718162638021697E-2</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43864.916666666664</v>
       </c>
       <c r="B24" s="2">
         <v>4755.11767578125</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>0.80198397643018149</v>
       </c>
-      <c r="D24" s="5">
-        <v>1107.321375</v>
+      <c r="D24" s="2">
+        <v>967.94405658448113</v>
       </c>
       <c r="E24" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>339.49908333333332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.46445659603554335</v>
+      </c>
+      <c r="I24" s="5">
+        <v>8.9694022897411449E-2</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43864.958333333336</v>
       </c>
       <c r="B25" s="2">
         <v>4439.7412109375</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>0.74879352172574998</v>
       </c>
-      <c r="D25" s="5">
-        <v>1107.321375</v>
+      <c r="D25" s="2">
+        <v>985.76811610318259</v>
       </c>
       <c r="E25" s="2">
         <v>128.89916666666667</v>
       </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>339.49908333333332</v>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.46445659603554335</v>
+      </c>
+      <c r="I25" s="5">
+        <v>9.8947233140201138E-2</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/test_data.xlsx
+++ b/data_excel/test_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A470F17D-05FE-4F6E-84EA-B845B799B4D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Power-abs</t>
   </si>
@@ -53,15 +54,24 @@
   <si>
     <t>Ветер</t>
   </si>
+  <si>
+    <t>Малые ТЭЦ</t>
+  </si>
+  <si>
+    <t>Power-abs-2</t>
+  </si>
+  <si>
+    <t>Power-rel-2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yy\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +85,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -91,7 +107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -134,13 +150,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -154,6 +185,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -435,25 +469,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="E2" sqref="E2:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -464,31 +500,40 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43864</v>
       </c>
@@ -498,32 +543,42 @@
       <c r="C2" s="2">
         <v>0.67009027515223396</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
+        <v>4300</v>
+      </c>
+      <c r="E2" s="2">
+        <f>D2/MAX($D$2:$D$25)</f>
+        <v>0.69354838709677424</v>
+      </c>
+      <c r="F2" s="2">
         <v>972.71458408976878</v>
       </c>
-      <c r="E2" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
       <c r="G2" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J2" s="2">
         <v>0.46445659603554335</v>
       </c>
-      <c r="I2" s="5">
+      <c r="K2" s="5">
         <v>0.2912726377004059</v>
       </c>
-      <c r="J2" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43864.041666666664</v>
       </c>
@@ -533,32 +588,42 @@
       <c r="C3" s="2">
         <v>0.63200590596037043</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
+        <v>4200</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E25" si="0">D3/MAX($D$2:$D$25)</f>
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="F3" s="2">
         <v>966.55516882977702</v>
       </c>
-      <c r="E3" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
       <c r="G3" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J3" s="2">
         <v>0.46445659603554335</v>
       </c>
-      <c r="I3" s="5">
+      <c r="K3" s="5">
         <v>0.2707634969423709</v>
       </c>
-      <c r="J3" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43864.083333333336</v>
       </c>
@@ -568,32 +633,42 @@
       <c r="C4" s="2">
         <v>0.61209461889401673</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
+        <v>4100</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.66129032258064513</v>
+      </c>
+      <c r="F4" s="2">
         <v>978.71296888544703</v>
       </c>
-      <c r="E4" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
       <c r="G4" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J4" s="2">
         <v>0.46445659603554335</v>
       </c>
-      <c r="I4" s="5">
+      <c r="K4" s="5">
         <v>0.25011512964133098</v>
       </c>
-      <c r="J4" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43864.125</v>
       </c>
@@ -603,32 +678,42 @@
       <c r="C5" s="2">
         <v>0.62502949233166438</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="7">
+        <v>4100</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.66129032258064513</v>
+      </c>
+      <c r="F5" s="2">
         <v>988.51569840053196</v>
       </c>
-      <c r="E5" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
       <c r="G5" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J5" s="2">
         <v>0.46445659603554335</v>
       </c>
-      <c r="I5" s="5">
+      <c r="K5" s="5">
         <v>0.23376136570528955</v>
       </c>
-      <c r="J5" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43864.166666666664</v>
       </c>
@@ -638,32 +723,42 @@
       <c r="C6" s="2">
         <v>0.62386577536482579</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="7">
+        <v>4100</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.66129032258064513</v>
+      </c>
+      <c r="F6" s="2">
         <v>995.85264893081603</v>
       </c>
-      <c r="E6" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
       <c r="G6" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J6" s="2">
         <v>0.46445659603554335</v>
       </c>
-      <c r="I6" s="5">
+      <c r="K6" s="5">
         <v>0.22229124050849816</v>
       </c>
-      <c r="J6" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43864.208333333336</v>
       </c>
@@ -673,32 +768,42 @@
       <c r="C7" s="2">
         <v>0.62786421495798361</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="7">
+        <v>4200</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="F7" s="2">
         <v>955.09181265145924</v>
       </c>
-      <c r="E7" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
       <c r="G7" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J7" s="2">
         <v>0.46445659603554335</v>
       </c>
-      <c r="I7" s="5">
+      <c r="K7" s="5">
         <v>0.21121737547256703</v>
       </c>
-      <c r="J7" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43864.25</v>
       </c>
@@ -708,32 +813,42 @@
       <c r="C8" s="2">
         <v>0.65748707463822531</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="7">
+        <v>4600</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.74193548387096775</v>
+      </c>
+      <c r="F8" s="2">
         <v>938.21380711059953</v>
       </c>
-      <c r="E8" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
       <c r="G8" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J8" s="2">
         <v>0.46445659603554335</v>
       </c>
-      <c r="I8" s="5">
+      <c r="K8" s="5">
         <v>0.20910755785933832</v>
       </c>
-      <c r="J8" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M8" s="5">
         <v>1.0799374077094307E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N8" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43864.291666666664</v>
       </c>
@@ -743,32 +858,42 @@
       <c r="C9" s="2">
         <v>0.75494950295178609</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="7">
+        <v>5200</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83870967741935487</v>
+      </c>
+      <c r="F9" s="2">
         <v>1037.4387663397797</v>
       </c>
-      <c r="E9" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
       <c r="G9" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J9" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="I9" s="5">
+      <c r="K9" s="5">
         <v>0.20137512985552569</v>
       </c>
-      <c r="J9" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M9" s="5">
         <v>4.6341803862796523E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43864.333333333336</v>
       </c>
@@ -778,32 +903,42 @@
       <c r="C10" s="2">
         <v>0.85711686918548124</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="7">
+        <v>5800</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.93548387096774188</v>
+      </c>
+      <c r="F10" s="2">
         <v>1207.3460349985703</v>
       </c>
-      <c r="E10" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
       <c r="G10" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J10" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="I10" s="5">
+      <c r="K10" s="5">
         <v>0.20896833131633341</v>
       </c>
-      <c r="J10" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M10" s="5">
         <v>7.9459884365885733E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43864.375</v>
       </c>
@@ -813,32 +948,42 @@
       <c r="C11" s="2">
         <v>0.88789290476881844</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="7">
+        <v>6200</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
         <v>1216.5750934845387</v>
       </c>
-      <c r="E11" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
       <c r="G11" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J11" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="I11" s="5">
+      <c r="K11" s="5">
         <v>0.18176560675998416</v>
       </c>
-      <c r="J11" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="L11" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M11" s="5">
         <v>9.5673638507482422E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43864.416666666664</v>
       </c>
@@ -848,32 +993,42 @@
       <c r="C12" s="2">
         <v>0.90278915723124797</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="7">
+        <v>6100</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9838709677419355</v>
+      </c>
+      <c r="F12" s="2">
         <v>1205.222445750436</v>
       </c>
-      <c r="E12" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
       <c r="G12" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J12" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="I12" s="5">
+      <c r="K12" s="5">
         <v>0.13631349533591081</v>
       </c>
-      <c r="J12" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M12" s="5">
         <v>9.4894908131855207E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43864.458333333336</v>
       </c>
@@ -883,32 +1038,42 @@
       <c r="C13" s="2">
         <v>0.90145052448792051</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="7">
+        <v>5900</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95161290322580649</v>
+      </c>
+      <c r="F13" s="2">
         <v>1229.6487543059914</v>
       </c>
-      <c r="E13" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
       <c r="G13" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J13" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="I13" s="5">
+      <c r="K13" s="5">
         <v>0.11420860420035769</v>
       </c>
-      <c r="J13" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M13" s="5">
         <v>8.8253660400091097E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43864.5</v>
       </c>
@@ -918,32 +1083,42 @@
       <c r="C14" s="2">
         <v>0.86941351415430157</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="7">
+        <v>5800</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.93548387096774188</v>
+      </c>
+      <c r="F14" s="2">
         <v>1218.1048828955168</v>
       </c>
-      <c r="E14" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
       <c r="G14" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J14" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="I14" s="5">
+      <c r="K14" s="5">
         <v>9.0818544975528256E-2</v>
       </c>
-      <c r="J14" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M14" s="5">
         <v>8.4646522528082052E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43864.541666666664</v>
       </c>
@@ -953,32 +1128,42 @@
       <c r="C15" s="2">
         <v>0.89617949850395129</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="7">
+        <v>5850</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94354838709677424</v>
+      </c>
+      <c r="F15" s="2">
         <v>1215.0956260936582</v>
       </c>
-      <c r="E15" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
       <c r="G15" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J15" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="I15" s="5">
+      <c r="K15" s="5">
         <v>8.0933460422177722E-2</v>
       </c>
-      <c r="J15" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M15" s="5">
         <v>3.7158662640777551E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43864.583333333336</v>
       </c>
@@ -988,32 +1173,42 @@
       <c r="C16" s="2">
         <v>0.91104519835193765</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="7">
+        <v>5840</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9419354838709677</v>
+      </c>
+      <c r="F16" s="2">
         <v>1235.8282983740223</v>
       </c>
-      <c r="E16" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
       <c r="G16" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J16" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="I16" s="5">
+      <c r="K16" s="5">
         <v>8.7648463688646594E-2</v>
       </c>
-      <c r="J16" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43864.625</v>
       </c>
@@ -1023,32 +1218,42 @@
       <c r="C17" s="2">
         <v>0.88447224723208551</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="7">
+        <v>5830</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94032258064516128</v>
+      </c>
+      <c r="F17" s="2">
         <v>1240.9007579998979</v>
       </c>
-      <c r="E17" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
       <c r="G17" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J17" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="I17" s="5">
+      <c r="K17" s="5">
         <v>9.3324622749617128E-2</v>
       </c>
-      <c r="J17" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43864.666666666664</v>
       </c>
@@ -1058,32 +1263,42 @@
       <c r="C18" s="2">
         <v>0.8608579585895958</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="7">
+        <v>5850</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94354838709677424</v>
+      </c>
+      <c r="F18" s="2">
         <v>1269.0106384266251</v>
       </c>
-      <c r="E18" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
       <c r="G18" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J18" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="I18" s="5">
+      <c r="K18" s="5">
         <v>8.9104987523159804E-2</v>
       </c>
-      <c r="J18" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.99361702127659579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43864.708333333336</v>
       </c>
@@ -1093,32 +1308,42 @@
       <c r="C19" s="2">
         <v>0.84371489486071261</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="7">
+        <v>6200</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
         <v>1191.806595192317</v>
       </c>
-      <c r="E19" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
       <c r="G19" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J19" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="I19" s="5">
+      <c r="K19" s="5">
         <v>9.0743576836987139E-2</v>
       </c>
-      <c r="J19" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43864.75</v>
       </c>
@@ -1128,32 +1353,42 @@
       <c r="C20" s="2">
         <v>0.82674641750007638</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="7">
+        <v>6200</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
         <v>1196.1745465368208</v>
       </c>
-      <c r="E20" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
       <c r="G20" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J20" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="I20" s="5">
+      <c r="K20" s="5">
         <v>9.9664785323380412E-2</v>
       </c>
-      <c r="J20" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43864.791666666664</v>
       </c>
@@ -1163,32 +1398,42 @@
       <c r="C21" s="2">
         <v>0.85600033994930569</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="7">
+        <v>6000</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="F21" s="2">
         <v>1191.6053071119252</v>
       </c>
-      <c r="E21" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
       <c r="G21" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J21" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="I21" s="5">
+      <c r="K21" s="5">
         <v>9.5766442119242179E-2</v>
       </c>
-      <c r="J21" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43864.833333333336</v>
       </c>
@@ -1198,32 +1443,42 @@
       <c r="C22" s="2">
         <v>0.86614578439390577</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="7">
+        <v>5900</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95161290322580649</v>
+      </c>
+      <c r="F22" s="2">
         <v>1148.1975325754147</v>
       </c>
-      <c r="E22" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
       <c r="G22" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J22" s="2">
         <v>0.69668489405331513</v>
       </c>
-      <c r="I22" s="5">
+      <c r="K22" s="5">
         <v>9.7672774785002081E-2</v>
       </c>
-      <c r="J22" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43864.875</v>
       </c>
@@ -1233,32 +1488,42 @@
       <c r="C23" s="2">
         <v>0.84555554576481062</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="7">
+        <v>5700</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.91935483870967738</v>
+      </c>
+      <c r="F23" s="2">
         <v>1023.3888583284261</v>
       </c>
-      <c r="E23" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
       <c r="G23" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J23" s="2">
         <v>0.54186602870813394</v>
       </c>
-      <c r="I23" s="5">
+      <c r="K23" s="5">
         <v>9.1718162638021697E-2</v>
       </c>
-      <c r="J23" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.99361702127659579</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43864.916666666664</v>
       </c>
@@ -1268,32 +1533,42 @@
       <c r="C24" s="2">
         <v>0.80198397643018149</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="7">
+        <v>5100</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.82258064516129037</v>
+      </c>
+      <c r="F24" s="2">
         <v>967.94405658448113</v>
       </c>
-      <c r="E24" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
       <c r="G24" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J24" s="2">
         <v>0.46445659603554335</v>
       </c>
-      <c r="I24" s="5">
+      <c r="K24" s="5">
         <v>8.9694022897411449E-2</v>
       </c>
-      <c r="J24" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0.95744680851063835</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43864.958333333336</v>
       </c>
@@ -1303,29 +1578,39 @@
       <c r="C25" s="2">
         <v>0.74879352172574998</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="7">
+        <v>4600</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.74193548387096775</v>
+      </c>
+      <c r="F25" s="2">
         <v>985.76811610318259</v>
       </c>
-      <c r="E25" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
       <c r="G25" s="2">
-        <v>339.49908333333332</v>
+        <v>128.89916666666667</v>
       </c>
       <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>339.49908333333332</v>
+      </c>
+      <c r="J25" s="2">
         <v>0.46445659603554335</v>
       </c>
-      <c r="I25" s="5">
+      <c r="K25" s="5">
         <v>9.8947233140201138E-2</v>
       </c>
-      <c r="J25" s="5">
-        <v>0.73767689318445262</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0</v>
+      <c r="L25" s="5">
+        <v>0.73767689318445262</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0.95744680851063835</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/test_data.xlsx
+++ b/data_excel/test_data.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A470F17D-05FE-4F6E-84EA-B845B799B4D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF998E2-C607-4B20-BE1B-1FD960E20AD0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_data" sheetId="1" r:id="rId1"/>
+    <sheet name="odu_profile" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
   <si>
     <t>Power-abs</t>
   </si>
@@ -63,6 +64,48 @@
   <si>
     <t>Power-rel-2</t>
   </si>
+  <si>
+    <t>Январь</t>
+  </si>
+  <si>
+    <t>Февраль</t>
+  </si>
+  <si>
+    <t>Март</t>
+  </si>
+  <si>
+    <t>Май</t>
+  </si>
+  <si>
+    <t>Июнь</t>
+  </si>
+  <si>
+    <t>Июль</t>
+  </si>
+  <si>
+    <t>Август</t>
+  </si>
+  <si>
+    <t>Сентябрь</t>
+  </si>
+  <si>
+    <t>Ноябрь</t>
+  </si>
+  <si>
+    <t>Декабрь</t>
+  </si>
+  <si>
+    <t>Апрель-отоп</t>
+  </si>
+  <si>
+    <t>Апрель-межотоп</t>
+  </si>
+  <si>
+    <t>Октябрь-межотоп</t>
+  </si>
+  <si>
+    <t>Октябрь-отоп</t>
+  </si>
 </sst>
 </file>
 
@@ -93,7 +136,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +146,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -188,6 +237,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -472,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E25"/>
     </sheetView>
   </sheetViews>
@@ -1617,4 +1672,1134 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78BF1AA-8309-442F-9F00-C66F48BA8C6A}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>4300</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4200</v>
+      </c>
+      <c r="C2" s="8">
+        <v>4150</v>
+      </c>
+      <c r="D2" s="8">
+        <v>4000</v>
+      </c>
+      <c r="E2" s="8">
+        <v>3650</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3500</v>
+      </c>
+      <c r="G2" s="8">
+        <v>3700</v>
+      </c>
+      <c r="H2" s="8">
+        <v>3700</v>
+      </c>
+      <c r="I2" s="8">
+        <v>3700</v>
+      </c>
+      <c r="J2" s="8">
+        <v>3650</v>
+      </c>
+      <c r="K2" s="8">
+        <v>3650</v>
+      </c>
+      <c r="L2" s="8">
+        <v>3850</v>
+      </c>
+      <c r="M2" s="8">
+        <v>4100</v>
+      </c>
+      <c r="N2" s="8">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>4200</v>
+      </c>
+      <c r="B3" s="8">
+        <v>4150</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4100</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3900</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3600</v>
+      </c>
+      <c r="F3" s="8">
+        <v>3450</v>
+      </c>
+      <c r="G3" s="8">
+        <v>3550</v>
+      </c>
+      <c r="H3" s="8">
+        <v>3550</v>
+      </c>
+      <c r="I3" s="8">
+        <v>3550</v>
+      </c>
+      <c r="J3" s="8">
+        <v>3550</v>
+      </c>
+      <c r="K3" s="8">
+        <v>3500</v>
+      </c>
+      <c r="L3" s="8">
+        <v>3750</v>
+      </c>
+      <c r="M3" s="8">
+        <v>4000</v>
+      </c>
+      <c r="N3" s="8">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>4150</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3950</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4050</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3850</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3550</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3350</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3450</v>
+      </c>
+      <c r="H4" s="8">
+        <v>3450</v>
+      </c>
+      <c r="I4" s="8">
+        <v>3450</v>
+      </c>
+      <c r="J4" s="8">
+        <v>3450</v>
+      </c>
+      <c r="K4" s="8">
+        <v>3400</v>
+      </c>
+      <c r="L4" s="8">
+        <v>3650</v>
+      </c>
+      <c r="M4" s="8">
+        <v>3800</v>
+      </c>
+      <c r="N4" s="8">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4100</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4150</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3900</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3700</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3400</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3200</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3400</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3400</v>
+      </c>
+      <c r="I5" s="8">
+        <v>3400</v>
+      </c>
+      <c r="J5" s="8">
+        <v>3400</v>
+      </c>
+      <c r="K5" s="8">
+        <v>3400</v>
+      </c>
+      <c r="L5" s="8">
+        <v>3750</v>
+      </c>
+      <c r="M5" s="8">
+        <v>3850</v>
+      </c>
+      <c r="N5" s="8">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4300</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4200</v>
+      </c>
+      <c r="C6" s="8">
+        <v>4100</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3950</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3550</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3350</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3150</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3150</v>
+      </c>
+      <c r="I6" s="8">
+        <v>3150</v>
+      </c>
+      <c r="J6" s="8">
+        <v>3500</v>
+      </c>
+      <c r="K6" s="8">
+        <v>3500</v>
+      </c>
+      <c r="L6" s="8">
+        <v>3850</v>
+      </c>
+      <c r="M6" s="8">
+        <v>3900</v>
+      </c>
+      <c r="N6" s="8">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>4600</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4500</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4350</v>
+      </c>
+      <c r="D7" s="8">
+        <v>4200</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3800</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3500</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3500</v>
+      </c>
+      <c r="H7" s="8">
+        <v>3500</v>
+      </c>
+      <c r="I7" s="8">
+        <v>3500</v>
+      </c>
+      <c r="J7" s="8">
+        <v>3750</v>
+      </c>
+      <c r="K7" s="8">
+        <v>3800</v>
+      </c>
+      <c r="L7" s="8">
+        <v>4150</v>
+      </c>
+      <c r="M7" s="8">
+        <v>4300</v>
+      </c>
+      <c r="N7" s="8">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>5150</v>
+      </c>
+      <c r="B8" s="8">
+        <v>5050</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4900</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4700</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4200</v>
+      </c>
+      <c r="F8" s="8">
+        <v>3950</v>
+      </c>
+      <c r="G8" s="8">
+        <v>4000</v>
+      </c>
+      <c r="H8" s="8">
+        <v>4000</v>
+      </c>
+      <c r="I8" s="8">
+        <v>4000</v>
+      </c>
+      <c r="J8" s="8">
+        <v>4200</v>
+      </c>
+      <c r="K8" s="8">
+        <v>4300</v>
+      </c>
+      <c r="L8" s="8">
+        <v>4700</v>
+      </c>
+      <c r="M8" s="8">
+        <v>4850</v>
+      </c>
+      <c r="N8" s="8">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>5750</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5450</v>
+      </c>
+      <c r="C9" s="8">
+        <v>5300</v>
+      </c>
+      <c r="D9" s="8">
+        <v>5100</v>
+      </c>
+      <c r="E9" s="8">
+        <v>4600</v>
+      </c>
+      <c r="F9" s="8">
+        <v>4350</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4350</v>
+      </c>
+      <c r="H9" s="8">
+        <v>4400</v>
+      </c>
+      <c r="I9" s="8">
+        <v>4400</v>
+      </c>
+      <c r="J9" s="8">
+        <v>4650</v>
+      </c>
+      <c r="K9" s="8">
+        <v>4650</v>
+      </c>
+      <c r="L9" s="8">
+        <v>5150</v>
+      </c>
+      <c r="M9" s="8">
+        <v>5450</v>
+      </c>
+      <c r="N9" s="8">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>6100</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5900</v>
+      </c>
+      <c r="C10" s="8">
+        <v>5650</v>
+      </c>
+      <c r="D10" s="8">
+        <v>5400</v>
+      </c>
+      <c r="E10" s="8">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="8">
+        <v>4650</v>
+      </c>
+      <c r="G10" s="8">
+        <v>4700</v>
+      </c>
+      <c r="H10" s="8">
+        <v>4850</v>
+      </c>
+      <c r="I10" s="8">
+        <v>4850</v>
+      </c>
+      <c r="J10" s="8">
+        <v>5000</v>
+      </c>
+      <c r="K10" s="8">
+        <v>5050</v>
+      </c>
+      <c r="L10" s="8">
+        <v>5400</v>
+      </c>
+      <c r="M10" s="8">
+        <v>5750</v>
+      </c>
+      <c r="N10" s="8">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>6200</v>
+      </c>
+      <c r="B11" s="8">
+        <v>5900</v>
+      </c>
+      <c r="C11" s="8">
+        <v>5750</v>
+      </c>
+      <c r="D11" s="8">
+        <v>5500</v>
+      </c>
+      <c r="E11" s="8">
+        <v>5100</v>
+      </c>
+      <c r="F11" s="8">
+        <v>4850</v>
+      </c>
+      <c r="G11" s="8">
+        <v>4850</v>
+      </c>
+      <c r="H11" s="8">
+        <v>5050</v>
+      </c>
+      <c r="I11" s="8">
+        <v>5050</v>
+      </c>
+      <c r="J11" s="8">
+        <v>5050</v>
+      </c>
+      <c r="K11" s="8">
+        <v>5250</v>
+      </c>
+      <c r="L11" s="8">
+        <v>5600</v>
+      </c>
+      <c r="M11" s="8">
+        <v>5800</v>
+      </c>
+      <c r="N11" s="8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>6000</v>
+      </c>
+      <c r="B12" s="8">
+        <v>5650</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5500</v>
+      </c>
+      <c r="D12" s="8">
+        <v>5300</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4950</v>
+      </c>
+      <c r="F12" s="8">
+        <v>4650</v>
+      </c>
+      <c r="G12" s="8">
+        <v>4750</v>
+      </c>
+      <c r="H12" s="8">
+        <v>4950</v>
+      </c>
+      <c r="I12" s="8">
+        <v>4950</v>
+      </c>
+      <c r="J12" s="8">
+        <v>4900</v>
+      </c>
+      <c r="K12" s="8">
+        <v>5000</v>
+      </c>
+      <c r="L12" s="8">
+        <v>5350</v>
+      </c>
+      <c r="M12" s="8">
+        <v>5550</v>
+      </c>
+      <c r="N12" s="8">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>5850</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5500</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5500</v>
+      </c>
+      <c r="D13" s="8">
+        <v>5250</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4900</v>
+      </c>
+      <c r="F13" s="8">
+        <v>4600</v>
+      </c>
+      <c r="G13" s="8">
+        <v>4750</v>
+      </c>
+      <c r="H13" s="8">
+        <v>4950</v>
+      </c>
+      <c r="I13" s="8">
+        <v>4950</v>
+      </c>
+      <c r="J13" s="8">
+        <v>4800</v>
+      </c>
+      <c r="K13" s="8">
+        <v>4950</v>
+      </c>
+      <c r="L13" s="8">
+        <v>5300</v>
+      </c>
+      <c r="M13" s="8">
+        <v>5450</v>
+      </c>
+      <c r="N13" s="8">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>5800</v>
+      </c>
+      <c r="B14" s="8">
+        <v>5500</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5550</v>
+      </c>
+      <c r="D14" s="8">
+        <v>5300</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4850</v>
+      </c>
+      <c r="F14" s="8">
+        <v>4550</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4800</v>
+      </c>
+      <c r="H14" s="8">
+        <v>4950</v>
+      </c>
+      <c r="I14" s="8">
+        <v>4950</v>
+      </c>
+      <c r="J14" s="8">
+        <v>4800</v>
+      </c>
+      <c r="K14" s="8">
+        <v>4950</v>
+      </c>
+      <c r="L14" s="8">
+        <v>5300</v>
+      </c>
+      <c r="M14" s="8">
+        <v>5450</v>
+      </c>
+      <c r="N14" s="8">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>5700</v>
+      </c>
+      <c r="B15" s="8">
+        <v>5450</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5500</v>
+      </c>
+      <c r="D15" s="8">
+        <v>5250</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4800</v>
+      </c>
+      <c r="F15" s="8">
+        <v>4550</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4850</v>
+      </c>
+      <c r="H15" s="8">
+        <v>5100</v>
+      </c>
+      <c r="I15" s="8">
+        <v>5100</v>
+      </c>
+      <c r="J15" s="8">
+        <v>4750</v>
+      </c>
+      <c r="K15" s="8">
+        <v>5000</v>
+      </c>
+      <c r="L15" s="8">
+        <v>5200</v>
+      </c>
+      <c r="M15" s="8">
+        <v>5550</v>
+      </c>
+      <c r="N15" s="8">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>5550</v>
+      </c>
+      <c r="B16" s="8">
+        <v>5350</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5400</v>
+      </c>
+      <c r="D16" s="8">
+        <v>5150</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4700</v>
+      </c>
+      <c r="F16" s="8">
+        <v>4500</v>
+      </c>
+      <c r="G16" s="8">
+        <v>4800</v>
+      </c>
+      <c r="H16" s="8">
+        <v>4950</v>
+      </c>
+      <c r="I16" s="8">
+        <v>4950</v>
+      </c>
+      <c r="J16" s="8">
+        <v>4750</v>
+      </c>
+      <c r="K16" s="8">
+        <v>4950</v>
+      </c>
+      <c r="L16" s="8">
+        <v>5100</v>
+      </c>
+      <c r="M16" s="8">
+        <v>5450</v>
+      </c>
+      <c r="N16" s="8">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>5400</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5250</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5300</v>
+      </c>
+      <c r="D17" s="8">
+        <v>5100</v>
+      </c>
+      <c r="E17" s="8">
+        <v>4650</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4450</v>
+      </c>
+      <c r="G17" s="8">
+        <v>4700</v>
+      </c>
+      <c r="H17" s="8">
+        <v>4850</v>
+      </c>
+      <c r="I17" s="8">
+        <v>4850</v>
+      </c>
+      <c r="J17" s="8">
+        <v>4650</v>
+      </c>
+      <c r="K17" s="8">
+        <v>4850</v>
+      </c>
+      <c r="L17" s="8">
+        <v>5000</v>
+      </c>
+      <c r="M17" s="8">
+        <v>5350</v>
+      </c>
+      <c r="N17" s="8">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>5300</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5150</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5150</v>
+      </c>
+      <c r="D18" s="8">
+        <v>4950</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4600</v>
+      </c>
+      <c r="F18" s="8">
+        <v>4350</v>
+      </c>
+      <c r="G18" s="8">
+        <v>4600</v>
+      </c>
+      <c r="H18" s="8">
+        <v>4800</v>
+      </c>
+      <c r="I18" s="8">
+        <v>4800</v>
+      </c>
+      <c r="J18" s="8">
+        <v>4550</v>
+      </c>
+      <c r="K18" s="8">
+        <v>4700</v>
+      </c>
+      <c r="L18" s="8">
+        <v>5000</v>
+      </c>
+      <c r="M18" s="8">
+        <v>5300</v>
+      </c>
+      <c r="N18" s="8">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>5500</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5200</v>
+      </c>
+      <c r="C19" s="8">
+        <v>5150</v>
+      </c>
+      <c r="D19" s="8">
+        <v>4950</v>
+      </c>
+      <c r="E19" s="8">
+        <v>4600</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4250</v>
+      </c>
+      <c r="G19" s="8">
+        <v>4500</v>
+      </c>
+      <c r="H19" s="8">
+        <v>4700</v>
+      </c>
+      <c r="I19" s="8">
+        <v>4700</v>
+      </c>
+      <c r="J19" s="8">
+        <v>4500</v>
+      </c>
+      <c r="K19" s="8">
+        <v>4750</v>
+      </c>
+      <c r="L19" s="8">
+        <v>5150</v>
+      </c>
+      <c r="M19" s="8">
+        <v>5650</v>
+      </c>
+      <c r="N19" s="8">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>5650</v>
+      </c>
+      <c r="B20" s="8">
+        <v>5450</v>
+      </c>
+      <c r="C20" s="8">
+        <v>5350</v>
+      </c>
+      <c r="D20" s="8">
+        <v>5050</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4600</v>
+      </c>
+      <c r="F20" s="8">
+        <v>4200</v>
+      </c>
+      <c r="G20" s="8">
+        <v>4400</v>
+      </c>
+      <c r="H20" s="8">
+        <v>4600</v>
+      </c>
+      <c r="I20" s="8">
+        <v>4600</v>
+      </c>
+      <c r="J20" s="8">
+        <v>4650</v>
+      </c>
+      <c r="K20" s="8">
+        <v>4950</v>
+      </c>
+      <c r="L20" s="8">
+        <v>5400</v>
+      </c>
+      <c r="M20" s="8">
+        <v>5600</v>
+      </c>
+      <c r="N20" s="8">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>5600</v>
+      </c>
+      <c r="B21" s="8">
+        <v>5600</v>
+      </c>
+      <c r="C21" s="8">
+        <v>5550</v>
+      </c>
+      <c r="D21" s="8">
+        <v>5300</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4650</v>
+      </c>
+      <c r="F21" s="8">
+        <v>4150</v>
+      </c>
+      <c r="G21" s="8">
+        <v>4400</v>
+      </c>
+      <c r="H21" s="8">
+        <v>4550</v>
+      </c>
+      <c r="I21" s="8">
+        <v>4550</v>
+      </c>
+      <c r="J21" s="8">
+        <v>5100</v>
+      </c>
+      <c r="K21" s="8">
+        <v>5150</v>
+      </c>
+      <c r="L21" s="8">
+        <v>5300</v>
+      </c>
+      <c r="M21" s="8">
+        <v>5450</v>
+      </c>
+      <c r="N21" s="8">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>5450</v>
+      </c>
+      <c r="B22" s="8">
+        <v>5500</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5350</v>
+      </c>
+      <c r="D22" s="8">
+        <v>5150</v>
+      </c>
+      <c r="E22" s="8">
+        <v>5000</v>
+      </c>
+      <c r="F22" s="8">
+        <v>4200</v>
+      </c>
+      <c r="G22" s="8">
+        <v>4400</v>
+      </c>
+      <c r="H22" s="8">
+        <v>4650</v>
+      </c>
+      <c r="I22" s="8">
+        <v>4650</v>
+      </c>
+      <c r="J22" s="8">
+        <v>5000</v>
+      </c>
+      <c r="K22" s="8">
+        <v>4950</v>
+      </c>
+      <c r="L22" s="8">
+        <v>5100</v>
+      </c>
+      <c r="M22" s="8">
+        <v>5250</v>
+      </c>
+      <c r="N22" s="8">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>5200</v>
+      </c>
+      <c r="B23" s="8">
+        <v>5150</v>
+      </c>
+      <c r="C23" s="8">
+        <v>5100</v>
+      </c>
+      <c r="D23" s="8">
+        <v>4850</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4650</v>
+      </c>
+      <c r="F23" s="8">
+        <v>4400</v>
+      </c>
+      <c r="G23" s="8">
+        <v>4550</v>
+      </c>
+      <c r="H23" s="8">
+        <v>4900</v>
+      </c>
+      <c r="I23" s="8">
+        <v>4900</v>
+      </c>
+      <c r="J23" s="8">
+        <v>4650</v>
+      </c>
+      <c r="K23" s="8">
+        <v>4650</v>
+      </c>
+      <c r="L23" s="8">
+        <v>4850</v>
+      </c>
+      <c r="M23" s="8">
+        <v>4950</v>
+      </c>
+      <c r="N23" s="8">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>4800</v>
+      </c>
+      <c r="B24" s="8">
+        <v>4700</v>
+      </c>
+      <c r="C24" s="8">
+        <v>4650</v>
+      </c>
+      <c r="D24" s="8">
+        <v>4450</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4200</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3950</v>
+      </c>
+      <c r="G24" s="8">
+        <v>4250</v>
+      </c>
+      <c r="H24" s="8">
+        <v>4500</v>
+      </c>
+      <c r="I24" s="8">
+        <v>4500</v>
+      </c>
+      <c r="J24" s="8">
+        <v>4200</v>
+      </c>
+      <c r="K24" s="8">
+        <v>4200</v>
+      </c>
+      <c r="L24" s="8">
+        <v>4500</v>
+      </c>
+      <c r="M24" s="8">
+        <v>4600</v>
+      </c>
+      <c r="N24" s="8">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>4350</v>
+      </c>
+      <c r="B25" s="8">
+        <v>4350</v>
+      </c>
+      <c r="C25" s="8">
+        <v>4350</v>
+      </c>
+      <c r="D25" s="8">
+        <v>4150</v>
+      </c>
+      <c r="E25" s="8">
+        <v>3850</v>
+      </c>
+      <c r="F25" s="8">
+        <v>3550</v>
+      </c>
+      <c r="G25" s="8">
+        <v>3800</v>
+      </c>
+      <c r="H25" s="8">
+        <v>4000</v>
+      </c>
+      <c r="I25" s="8">
+        <v>4000</v>
+      </c>
+      <c r="J25" s="8">
+        <v>3800</v>
+      </c>
+      <c r="K25" s="8">
+        <v>3800</v>
+      </c>
+      <c r="L25" s="8">
+        <v>4100</v>
+      </c>
+      <c r="M25" s="8">
+        <v>4300</v>
+      </c>
+      <c r="N25" s="8">
+        <v>4350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_excel/test_data.xlsx
+++ b/data_excel/test_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF998E2-C607-4B20-BE1B-1FD960E20AD0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7D7ECF-1275-472E-A103-A1C8562D7E30}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Power-abs</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Блок-станции</t>
-  </si>
-  <si>
     <t>Вода</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
   </si>
   <si>
     <t>Ветер</t>
-  </si>
-  <si>
-    <t>Малые ТЭЦ</t>
   </si>
   <si>
     <t>Power-abs-2</t>
@@ -106,13 +100,80 @@
   <si>
     <t>Октябрь-отоп</t>
   </si>
+  <si>
+    <t>Минская ТЭЦ-3-пар</t>
+  </si>
+  <si>
+    <t>Минская ТЭЦ-3-гвс</t>
+  </si>
+  <si>
+    <t>Могилевская ТЭЦ-2-гвс</t>
+  </si>
+  <si>
+    <t>Бобруйская ТЭЦ-2-гвс</t>
+  </si>
+  <si>
+    <t>Гродненская ТЭЦ-2-гвс</t>
+  </si>
+  <si>
+    <t>Гомельская ТЭЦ-2-гвс</t>
+  </si>
+  <si>
+    <t>Мозырская ТЭЦ-2-гвс</t>
+  </si>
+  <si>
+    <t>Светлогорская ТЭЦ-гвс</t>
+  </si>
+  <si>
+    <t>Минская ТЭЦ-2-гвс</t>
+  </si>
+  <si>
+    <t>Малые ТЭЦ-гвс</t>
+  </si>
+  <si>
+    <t>РК-Белэнерго-гвс</t>
+  </si>
+  <si>
+    <t>РК-ЖКХ-гвс</t>
+  </si>
+  <si>
+    <t>Могилевская ТЭЦ-2-пар</t>
+  </si>
+  <si>
+    <t>Бобруйская ТЭЦ-2-пар</t>
+  </si>
+  <si>
+    <t>Гродненская ТЭЦ-2-пар</t>
+  </si>
+  <si>
+    <t>Гомельская ТЭЦ-2-пар</t>
+  </si>
+  <si>
+    <t>Мозырская ТЭЦ-2-пар</t>
+  </si>
+  <si>
+    <t>Светлогорская ТЭЦ-пар</t>
+  </si>
+  <si>
+    <t>Минская ТЭЦ-2-пар</t>
+  </si>
+  <si>
+    <t>РК-Белэнерго-пар</t>
+  </si>
+  <si>
+    <t>Блок-станции-1</t>
+  </si>
+  <si>
+    <t>Блок-станции-2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -136,7 +197,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +214,17 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEBF7"/>
       </patternFill>
     </fill>
   </fills>
@@ -218,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,7 +304,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -243,6 +314,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -525,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:AV25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E25"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,15 +619,21 @@
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="15" width="23.7109375" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="23.7109375" customWidth="1"/>
+    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="29" width="22.7109375" customWidth="1"/>
+    <col min="30" max="31" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -555,40 +644,142 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>11</v>
+      <c r="AK1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV1" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43864</v>
       </c>
@@ -598,42 +789,144 @@
       <c r="C2" s="2">
         <v>0.67009027515223396</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>4300</v>
       </c>
       <c r="E2" s="2">
         <f>D2/MAX($D$2:$D$25)</f>
         <v>0.69354838709677424</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G2" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H2" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I2" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J2" s="9">
         <v>972.71458408976878</v>
       </c>
-      <c r="G2" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="K2" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L2" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M2" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N2" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O2" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P2" s="12">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R2" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S2" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T2" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U2" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V2" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J2" s="2">
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD2" s="2">
         <v>0.46445659603554335</v>
       </c>
-      <c r="K2" s="5">
+      <c r="AE2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="2">
         <v>0.2912726377004059</v>
       </c>
-      <c r="L2" s="5">
+      <c r="AG2" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0.95744680851063835</v>
+      <c r="AH2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>4300</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>4200</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>4150</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>4000</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>3650</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>3500</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>3700</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>3700</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>3700</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>3650</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>3650</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>3850</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>4100</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>4200</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43864.041666666664</v>
       </c>
@@ -643,42 +936,144 @@
       <c r="C3" s="2">
         <v>0.63200590596037043</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>4200</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E25" si="0">D3/MAX($D$2:$D$25)</f>
         <v>0.67741935483870963</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G3" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H3" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I3" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J3" s="9">
         <v>966.55516882977702</v>
       </c>
-      <c r="G3" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="K3" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L3" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M3" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N3" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O3" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R3" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S3" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T3" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U3" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V3" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J3" s="2">
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD3" s="2">
         <v>0.46445659603554335</v>
       </c>
-      <c r="K3" s="5">
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="2">
         <v>0.2707634969423709</v>
       </c>
-      <c r="L3" s="5">
+      <c r="AG3" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0.95744680851063835</v>
+      <c r="AH3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="7">
+        <v>4200</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>4150</v>
+      </c>
+      <c r="AK3" s="7">
+        <v>4100</v>
+      </c>
+      <c r="AL3" s="7">
+        <v>3900</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>3600</v>
+      </c>
+      <c r="AN3" s="7">
+        <v>3450</v>
+      </c>
+      <c r="AO3" s="7">
+        <v>3550</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>3550</v>
+      </c>
+      <c r="AQ3" s="7">
+        <v>3550</v>
+      </c>
+      <c r="AR3" s="7">
+        <v>3550</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>3500</v>
+      </c>
+      <c r="AT3" s="7">
+        <v>3750</v>
+      </c>
+      <c r="AU3" s="7">
+        <v>4000</v>
+      </c>
+      <c r="AV3" s="7">
+        <v>4100</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43864.083333333336</v>
       </c>
@@ -688,42 +1083,144 @@
       <c r="C4" s="2">
         <v>0.61209461889401673</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>4100</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>0.66129032258064513</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G4" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H4" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I4" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J4" s="9">
         <v>978.71296888544703</v>
       </c>
-      <c r="G4" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="K4" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L4" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M4" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N4" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O4" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R4" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S4" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T4" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U4" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V4" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J4" s="2">
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD4" s="2">
         <v>0.46445659603554335</v>
       </c>
-      <c r="K4" s="5">
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="2">
         <v>0.25011512964133098</v>
       </c>
-      <c r="L4" s="5">
+      <c r="AG4" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0.95744680851063835</v>
+      <c r="AH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>4150</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>3950</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>4050</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>3850</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>3550</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>3350</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>3450</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>3450</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>3450</v>
+      </c>
+      <c r="AR4" s="7">
+        <v>3450</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>3400</v>
+      </c>
+      <c r="AT4" s="7">
+        <v>3650</v>
+      </c>
+      <c r="AU4" s="7">
+        <v>3800</v>
+      </c>
+      <c r="AV4" s="7">
+        <v>3900</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43864.125</v>
       </c>
@@ -733,42 +1230,144 @@
       <c r="C5" s="2">
         <v>0.62502949233166438</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>4100</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>0.66129032258064513</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G5" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H5" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I5" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J5" s="9">
         <v>988.51569840053196</v>
       </c>
-      <c r="G5" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="K5" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L5" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M5" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N5" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O5" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R5" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S5" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T5" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U5" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V5" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J5" s="2">
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD5" s="2">
         <v>0.46445659603554335</v>
       </c>
-      <c r="K5" s="5">
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="2">
         <v>0.23376136570528955</v>
       </c>
-      <c r="L5" s="5">
+      <c r="AG5" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0.95744680851063835</v>
+      <c r="AH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>4100</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>4150</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>3900</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>3700</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>3400</v>
+      </c>
+      <c r="AN5" s="7">
+        <v>3200</v>
+      </c>
+      <c r="AO5" s="7">
+        <v>3400</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>3400</v>
+      </c>
+      <c r="AQ5" s="7">
+        <v>3400</v>
+      </c>
+      <c r="AR5" s="7">
+        <v>3400</v>
+      </c>
+      <c r="AS5" s="7">
+        <v>3400</v>
+      </c>
+      <c r="AT5" s="7">
+        <v>3750</v>
+      </c>
+      <c r="AU5" s="7">
+        <v>3850</v>
+      </c>
+      <c r="AV5" s="7">
+        <v>3900</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43864.166666666664</v>
       </c>
@@ -778,42 +1377,144 @@
       <c r="C6" s="2">
         <v>0.62386577536482579</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>4100</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>0.66129032258064513</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G6" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H6" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I6" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J6" s="9">
         <v>995.85264893081603</v>
       </c>
-      <c r="G6" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="K6" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L6" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M6" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N6" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O6" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R6" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S6" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T6" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U6" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V6" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J6" s="2">
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD6" s="2">
         <v>0.46445659603554335</v>
       </c>
-      <c r="K6" s="5">
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="2">
         <v>0.22229124050849816</v>
       </c>
-      <c r="L6" s="5">
+      <c r="AG6" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0.95744680851063835</v>
+      <c r="AH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>4300</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>4200</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>4100</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>3950</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>3550</v>
+      </c>
+      <c r="AN6" s="7">
+        <v>3350</v>
+      </c>
+      <c r="AO6" s="7">
+        <v>3150</v>
+      </c>
+      <c r="AP6" s="7">
+        <v>3150</v>
+      </c>
+      <c r="AQ6" s="7">
+        <v>3150</v>
+      </c>
+      <c r="AR6" s="7">
+        <v>3500</v>
+      </c>
+      <c r="AS6" s="7">
+        <v>3500</v>
+      </c>
+      <c r="AT6" s="7">
+        <v>3850</v>
+      </c>
+      <c r="AU6" s="7">
+        <v>3900</v>
+      </c>
+      <c r="AV6" s="7">
+        <v>4050</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43864.208333333336</v>
       </c>
@@ -823,42 +1524,144 @@
       <c r="C7" s="2">
         <v>0.62786421495798361</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>4200</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>0.67741935483870963</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G7" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H7" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I7" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J7" s="9">
         <v>955.09181265145924</v>
       </c>
-      <c r="G7" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="K7" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L7" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M7" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N7" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O7" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P7" s="12">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R7" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S7" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T7" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U7" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V7" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J7" s="2">
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD7" s="2">
         <v>0.46445659603554335</v>
       </c>
-      <c r="K7" s="5">
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="2">
         <v>0.21121737547256703</v>
       </c>
-      <c r="L7" s="5">
+      <c r="AG7" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0.95744680851063835</v>
+      <c r="AH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="7">
+        <v>4600</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>4500</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>4350</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>4200</v>
+      </c>
+      <c r="AM7" s="7">
+        <v>3800</v>
+      </c>
+      <c r="AN7" s="7">
+        <v>3500</v>
+      </c>
+      <c r="AO7" s="7">
+        <v>3500</v>
+      </c>
+      <c r="AP7" s="7">
+        <v>3500</v>
+      </c>
+      <c r="AQ7" s="7">
+        <v>3500</v>
+      </c>
+      <c r="AR7" s="7">
+        <v>3750</v>
+      </c>
+      <c r="AS7" s="7">
+        <v>3800</v>
+      </c>
+      <c r="AT7" s="7">
+        <v>4150</v>
+      </c>
+      <c r="AU7" s="7">
+        <v>4300</v>
+      </c>
+      <c r="AV7" s="7">
+        <v>4400</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43864.25</v>
       </c>
@@ -868,42 +1671,144 @@
       <c r="C8" s="2">
         <v>0.65748707463822531</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>4600</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0.74193548387096775</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G8" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H8" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I8" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J8" s="9">
         <v>938.21380711059953</v>
       </c>
-      <c r="G8" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="K8" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L8" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M8" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N8" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O8" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P8" s="12">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R8" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S8" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T8" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U8" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V8" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J8" s="2">
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD8" s="2">
         <v>0.46445659603554335</v>
       </c>
-      <c r="K8" s="5">
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="2">
         <v>0.20910755785933832</v>
       </c>
-      <c r="L8" s="5">
+      <c r="AG8" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M8" s="5">
+      <c r="AH8" s="2">
         <v>1.0799374077094307E-2</v>
       </c>
-      <c r="N8" s="5">
-        <v>0.95744680851063835</v>
+      <c r="AI8" s="7">
+        <v>5150</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>5050</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>4900</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>4700</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>4200</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>3950</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>4000</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>4000</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>4000</v>
+      </c>
+      <c r="AR8" s="7">
+        <v>4200</v>
+      </c>
+      <c r="AS8" s="7">
+        <v>4300</v>
+      </c>
+      <c r="AT8" s="7">
+        <v>4700</v>
+      </c>
+      <c r="AU8" s="7">
+        <v>4850</v>
+      </c>
+      <c r="AV8" s="7">
+        <v>4950</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43864.291666666664</v>
       </c>
@@ -913,42 +1818,144 @@
       <c r="C9" s="2">
         <v>0.75494950295178609</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>5200</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0.83870967741935487</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G9" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H9" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I9" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J9" s="9">
         <v>1037.4387663397797</v>
       </c>
-      <c r="G9" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="K9" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L9" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M9" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N9" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O9" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P9" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R9" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S9" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T9" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U9" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V9" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J9" s="2">
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD9" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="K9" s="5">
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="2">
         <v>0.20137512985552569</v>
       </c>
-      <c r="L9" s="5">
+      <c r="AG9" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M9" s="5">
+      <c r="AH9" s="2">
         <v>4.6341803862796523E-2</v>
       </c>
-      <c r="N9" s="5">
-        <v>1</v>
+      <c r="AI9" s="7">
+        <v>5750</v>
+      </c>
+      <c r="AJ9" s="7">
+        <v>5450</v>
+      </c>
+      <c r="AK9" s="7">
+        <v>5300</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>5100</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>4600</v>
+      </c>
+      <c r="AN9" s="7">
+        <v>4350</v>
+      </c>
+      <c r="AO9" s="7">
+        <v>4350</v>
+      </c>
+      <c r="AP9" s="7">
+        <v>4400</v>
+      </c>
+      <c r="AQ9" s="7">
+        <v>4400</v>
+      </c>
+      <c r="AR9" s="7">
+        <v>4650</v>
+      </c>
+      <c r="AS9" s="7">
+        <v>4650</v>
+      </c>
+      <c r="AT9" s="7">
+        <v>5150</v>
+      </c>
+      <c r="AU9" s="7">
+        <v>5450</v>
+      </c>
+      <c r="AV9" s="7">
+        <v>5450</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43864.333333333336</v>
       </c>
@@ -958,42 +1965,144 @@
       <c r="C10" s="2">
         <v>0.85711686918548124</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>5800</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>0.93548387096774188</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G10" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H10" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I10" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J10" s="9">
         <v>1207.3460349985703</v>
       </c>
-      <c r="G10" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="K10" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L10" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M10" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N10" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O10" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P10" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R10" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S10" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T10" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U10" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V10" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J10" s="2">
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD10" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="K10" s="5">
+      <c r="AE10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="2">
         <v>0.20896833131633341</v>
       </c>
-      <c r="L10" s="5">
+      <c r="AG10" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M10" s="5">
+      <c r="AH10" s="2">
         <v>7.9459884365885733E-2</v>
       </c>
-      <c r="N10" s="5">
-        <v>1</v>
+      <c r="AI10" s="7">
+        <v>6100</v>
+      </c>
+      <c r="AJ10" s="7">
+        <v>5900</v>
+      </c>
+      <c r="AK10" s="7">
+        <v>5650</v>
+      </c>
+      <c r="AL10" s="7">
+        <v>5400</v>
+      </c>
+      <c r="AM10" s="7">
+        <v>5000</v>
+      </c>
+      <c r="AN10" s="7">
+        <v>4650</v>
+      </c>
+      <c r="AO10" s="7">
+        <v>4700</v>
+      </c>
+      <c r="AP10" s="7">
+        <v>4850</v>
+      </c>
+      <c r="AQ10" s="7">
+        <v>4850</v>
+      </c>
+      <c r="AR10" s="7">
+        <v>5000</v>
+      </c>
+      <c r="AS10" s="7">
+        <v>5050</v>
+      </c>
+      <c r="AT10" s="7">
+        <v>5400</v>
+      </c>
+      <c r="AU10" s="7">
+        <v>5750</v>
+      </c>
+      <c r="AV10" s="7">
+        <v>5900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43864.375</v>
       </c>
@@ -1003,42 +2112,144 @@
       <c r="C11" s="2">
         <v>0.88789290476881844</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>6200</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G11" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H11" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I11" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J11" s="9">
         <v>1216.5750934845387</v>
       </c>
-      <c r="G11" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="K11" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L11" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M11" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N11" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O11" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P11" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R11" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S11" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T11" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U11" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V11" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J11" s="2">
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD11" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="K11" s="5">
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="2">
         <v>0.18176560675998416</v>
       </c>
-      <c r="L11" s="5">
+      <c r="AG11" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M11" s="5">
+      <c r="AH11" s="2">
         <v>9.5673638507482422E-2</v>
       </c>
-      <c r="N11" s="5">
-        <v>1</v>
+      <c r="AI11" s="7">
+        <v>6200</v>
+      </c>
+      <c r="AJ11" s="7">
+        <v>5900</v>
+      </c>
+      <c r="AK11" s="7">
+        <v>5750</v>
+      </c>
+      <c r="AL11" s="7">
+        <v>5500</v>
+      </c>
+      <c r="AM11" s="7">
+        <v>5100</v>
+      </c>
+      <c r="AN11" s="7">
+        <v>4850</v>
+      </c>
+      <c r="AO11" s="7">
+        <v>4850</v>
+      </c>
+      <c r="AP11" s="7">
+        <v>5050</v>
+      </c>
+      <c r="AQ11" s="7">
+        <v>5050</v>
+      </c>
+      <c r="AR11" s="7">
+        <v>5050</v>
+      </c>
+      <c r="AS11" s="7">
+        <v>5250</v>
+      </c>
+      <c r="AT11" s="7">
+        <v>5600</v>
+      </c>
+      <c r="AU11" s="7">
+        <v>5800</v>
+      </c>
+      <c r="AV11" s="7">
+        <v>6000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43864.416666666664</v>
       </c>
@@ -1048,42 +2259,144 @@
       <c r="C12" s="2">
         <v>0.90278915723124797</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>6100</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>0.9838709677419355</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G12" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H12" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I12" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J12" s="9">
         <v>1205.222445750436</v>
       </c>
-      <c r="G12" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="K12" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L12" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M12" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N12" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O12" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P12" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R12" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S12" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T12" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U12" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V12" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J12" s="2">
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD12" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="K12" s="5">
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="2">
         <v>0.13631349533591081</v>
       </c>
-      <c r="L12" s="5">
+      <c r="AG12" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M12" s="5">
+      <c r="AH12" s="2">
         <v>9.4894908131855207E-2</v>
       </c>
-      <c r="N12" s="5">
-        <v>1</v>
+      <c r="AI12" s="7">
+        <v>6000</v>
+      </c>
+      <c r="AJ12" s="7">
+        <v>5650</v>
+      </c>
+      <c r="AK12" s="7">
+        <v>5500</v>
+      </c>
+      <c r="AL12" s="7">
+        <v>5300</v>
+      </c>
+      <c r="AM12" s="7">
+        <v>4950</v>
+      </c>
+      <c r="AN12" s="7">
+        <v>4650</v>
+      </c>
+      <c r="AO12" s="7">
+        <v>4750</v>
+      </c>
+      <c r="AP12" s="7">
+        <v>4950</v>
+      </c>
+      <c r="AQ12" s="7">
+        <v>4950</v>
+      </c>
+      <c r="AR12" s="7">
+        <v>4900</v>
+      </c>
+      <c r="AS12" s="7">
+        <v>5000</v>
+      </c>
+      <c r="AT12" s="7">
+        <v>5350</v>
+      </c>
+      <c r="AU12" s="7">
+        <v>5550</v>
+      </c>
+      <c r="AV12" s="7">
+        <v>5850</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43864.458333333336</v>
       </c>
@@ -1093,42 +2406,144 @@
       <c r="C13" s="2">
         <v>0.90145052448792051</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>5900</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>0.95161290322580649</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G13" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H13" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I13" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J13" s="9">
         <v>1229.6487543059914</v>
       </c>
-      <c r="G13" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="K13" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L13" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M13" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N13" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O13" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R13" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S13" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T13" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U13" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V13" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J13" s="2">
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD13" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="K13" s="5">
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="2">
         <v>0.11420860420035769</v>
       </c>
-      <c r="L13" s="5">
+      <c r="AG13" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M13" s="5">
+      <c r="AH13" s="2">
         <v>8.8253660400091097E-2</v>
       </c>
-      <c r="N13" s="5">
-        <v>1</v>
+      <c r="AI13" s="7">
+        <v>5850</v>
+      </c>
+      <c r="AJ13" s="7">
+        <v>5500</v>
+      </c>
+      <c r="AK13" s="7">
+        <v>5500</v>
+      </c>
+      <c r="AL13" s="7">
+        <v>5250</v>
+      </c>
+      <c r="AM13" s="7">
+        <v>4900</v>
+      </c>
+      <c r="AN13" s="7">
+        <v>4600</v>
+      </c>
+      <c r="AO13" s="7">
+        <v>4750</v>
+      </c>
+      <c r="AP13" s="7">
+        <v>4950</v>
+      </c>
+      <c r="AQ13" s="7">
+        <v>4950</v>
+      </c>
+      <c r="AR13" s="7">
+        <v>4800</v>
+      </c>
+      <c r="AS13" s="7">
+        <v>4950</v>
+      </c>
+      <c r="AT13" s="7">
+        <v>5300</v>
+      </c>
+      <c r="AU13" s="7">
+        <v>5450</v>
+      </c>
+      <c r="AV13" s="7">
+        <v>5700</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43864.5</v>
       </c>
@@ -1138,42 +2553,144 @@
       <c r="C14" s="2">
         <v>0.86941351415430157</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>5800</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>0.93548387096774188</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G14" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H14" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I14" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J14" s="9">
         <v>1218.1048828955168</v>
       </c>
-      <c r="G14" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="K14" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L14" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M14" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N14" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O14" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P14" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R14" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S14" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T14" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U14" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V14" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J14" s="2">
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD14" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="K14" s="5">
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="2">
         <v>9.0818544975528256E-2</v>
       </c>
-      <c r="L14" s="5">
+      <c r="AG14" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M14" s="5">
+      <c r="AH14" s="2">
         <v>8.4646522528082052E-2</v>
       </c>
-      <c r="N14" s="5">
-        <v>1</v>
+      <c r="AI14" s="7">
+        <v>5800</v>
+      </c>
+      <c r="AJ14" s="7">
+        <v>5500</v>
+      </c>
+      <c r="AK14" s="7">
+        <v>5550</v>
+      </c>
+      <c r="AL14" s="7">
+        <v>5300</v>
+      </c>
+      <c r="AM14" s="7">
+        <v>4850</v>
+      </c>
+      <c r="AN14" s="7">
+        <v>4550</v>
+      </c>
+      <c r="AO14" s="7">
+        <v>4800</v>
+      </c>
+      <c r="AP14" s="7">
+        <v>4950</v>
+      </c>
+      <c r="AQ14" s="7">
+        <v>4950</v>
+      </c>
+      <c r="AR14" s="7">
+        <v>4800</v>
+      </c>
+      <c r="AS14" s="7">
+        <v>4950</v>
+      </c>
+      <c r="AT14" s="7">
+        <v>5300</v>
+      </c>
+      <c r="AU14" s="7">
+        <v>5450</v>
+      </c>
+      <c r="AV14" s="7">
+        <v>5650</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43864.541666666664</v>
       </c>
@@ -1183,42 +2700,144 @@
       <c r="C15" s="2">
         <v>0.89617949850395129</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>5850</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>0.94354838709677424</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G15" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H15" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I15" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J15" s="9">
         <v>1215.0956260936582</v>
       </c>
-      <c r="G15" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="K15" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L15" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M15" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N15" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O15" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P15" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R15" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S15" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T15" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U15" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V15" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J15" s="2">
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD15" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="K15" s="5">
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="2">
         <v>8.0933460422177722E-2</v>
       </c>
-      <c r="L15" s="5">
+      <c r="AG15" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M15" s="5">
+      <c r="AH15" s="2">
         <v>3.7158662640777551E-2</v>
       </c>
-      <c r="N15" s="5">
-        <v>1</v>
+      <c r="AI15" s="7">
+        <v>5700</v>
+      </c>
+      <c r="AJ15" s="7">
+        <v>5450</v>
+      </c>
+      <c r="AK15" s="7">
+        <v>5500</v>
+      </c>
+      <c r="AL15" s="7">
+        <v>5250</v>
+      </c>
+      <c r="AM15" s="7">
+        <v>4800</v>
+      </c>
+      <c r="AN15" s="7">
+        <v>4550</v>
+      </c>
+      <c r="AO15" s="7">
+        <v>4850</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>5100</v>
+      </c>
+      <c r="AQ15" s="7">
+        <v>5100</v>
+      </c>
+      <c r="AR15" s="7">
+        <v>4750</v>
+      </c>
+      <c r="AS15" s="7">
+        <v>5000</v>
+      </c>
+      <c r="AT15" s="7">
+        <v>5200</v>
+      </c>
+      <c r="AU15" s="7">
+        <v>5550</v>
+      </c>
+      <c r="AV15" s="7">
+        <v>5700</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43864.583333333336</v>
       </c>
@@ -1228,42 +2847,144 @@
       <c r="C16" s="2">
         <v>0.91104519835193765</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>5840</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>0.9419354838709677</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G16" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H16" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I16" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J16" s="9">
         <v>1235.8282983740223</v>
       </c>
-      <c r="G16" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="K16" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L16" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M16" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N16" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O16" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P16" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R16" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S16" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T16" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U16" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V16" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J16" s="2">
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD16" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="K16" s="5">
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="2">
         <v>8.7648463688646594E-2</v>
       </c>
-      <c r="L16" s="5">
+      <c r="AG16" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M16" s="5">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5">
-        <v>1</v>
+      <c r="AH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="7">
+        <v>5550</v>
+      </c>
+      <c r="AJ16" s="7">
+        <v>5350</v>
+      </c>
+      <c r="AK16" s="7">
+        <v>5400</v>
+      </c>
+      <c r="AL16" s="7">
+        <v>5150</v>
+      </c>
+      <c r="AM16" s="7">
+        <v>4700</v>
+      </c>
+      <c r="AN16" s="7">
+        <v>4500</v>
+      </c>
+      <c r="AO16" s="7">
+        <v>4800</v>
+      </c>
+      <c r="AP16" s="7">
+        <v>4950</v>
+      </c>
+      <c r="AQ16" s="7">
+        <v>4950</v>
+      </c>
+      <c r="AR16" s="7">
+        <v>4750</v>
+      </c>
+      <c r="AS16" s="7">
+        <v>4950</v>
+      </c>
+      <c r="AT16" s="7">
+        <v>5100</v>
+      </c>
+      <c r="AU16" s="7">
+        <v>5450</v>
+      </c>
+      <c r="AV16" s="7">
+        <v>5650</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43864.625</v>
       </c>
@@ -1273,42 +2994,144 @@
       <c r="C17" s="2">
         <v>0.88447224723208551</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>5830</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>0.94032258064516128</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G17" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H17" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I17" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J17" s="9">
         <v>1240.9007579998979</v>
       </c>
-      <c r="G17" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="K17" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L17" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M17" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N17" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O17" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P17" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R17" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S17" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T17" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U17" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V17" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J17" s="2">
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD17" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="K17" s="5">
+      <c r="AE17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="2">
         <v>9.3324622749617128E-2</v>
       </c>
-      <c r="L17" s="5">
+      <c r="AG17" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M17" s="5">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5">
-        <v>1</v>
+      <c r="AH17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="7">
+        <v>5400</v>
+      </c>
+      <c r="AJ17" s="7">
+        <v>5250</v>
+      </c>
+      <c r="AK17" s="7">
+        <v>5300</v>
+      </c>
+      <c r="AL17" s="7">
+        <v>5100</v>
+      </c>
+      <c r="AM17" s="7">
+        <v>4650</v>
+      </c>
+      <c r="AN17" s="7">
+        <v>4450</v>
+      </c>
+      <c r="AO17" s="7">
+        <v>4700</v>
+      </c>
+      <c r="AP17" s="7">
+        <v>4850</v>
+      </c>
+      <c r="AQ17" s="7">
+        <v>4850</v>
+      </c>
+      <c r="AR17" s="7">
+        <v>4650</v>
+      </c>
+      <c r="AS17" s="7">
+        <v>4850</v>
+      </c>
+      <c r="AT17" s="7">
+        <v>5000</v>
+      </c>
+      <c r="AU17" s="7">
+        <v>5350</v>
+      </c>
+      <c r="AV17" s="7">
+        <v>5500</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43864.666666666664</v>
       </c>
@@ -1318,42 +3141,144 @@
       <c r="C18" s="2">
         <v>0.8608579585895958</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>5850</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>0.94354838709677424</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G18" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H18" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I18" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J18" s="9">
         <v>1269.0106384266251</v>
       </c>
-      <c r="G18" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="K18" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L18" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M18" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N18" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O18" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P18" s="12">
+        <v>0.99361702127659579</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R18" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S18" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T18" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U18" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V18" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J18" s="2">
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD18" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="K18" s="5">
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="2">
         <v>8.9104987523159804E-2</v>
       </c>
-      <c r="L18" s="5">
+      <c r="AG18" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M18" s="5">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5">
-        <v>0.99361702127659579</v>
+      <c r="AH18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="7">
+        <v>5300</v>
+      </c>
+      <c r="AJ18" s="7">
+        <v>5150</v>
+      </c>
+      <c r="AK18" s="7">
+        <v>5150</v>
+      </c>
+      <c r="AL18" s="7">
+        <v>4950</v>
+      </c>
+      <c r="AM18" s="7">
+        <v>4600</v>
+      </c>
+      <c r="AN18" s="7">
+        <v>4350</v>
+      </c>
+      <c r="AO18" s="7">
+        <v>4600</v>
+      </c>
+      <c r="AP18" s="7">
+        <v>4800</v>
+      </c>
+      <c r="AQ18" s="7">
+        <v>4800</v>
+      </c>
+      <c r="AR18" s="7">
+        <v>4550</v>
+      </c>
+      <c r="AS18" s="7">
+        <v>4700</v>
+      </c>
+      <c r="AT18" s="7">
+        <v>5000</v>
+      </c>
+      <c r="AU18" s="7">
+        <v>5300</v>
+      </c>
+      <c r="AV18" s="7">
+        <v>5450</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43864.708333333336</v>
       </c>
@@ -1363,42 +3288,144 @@
       <c r="C19" s="2">
         <v>0.84371489486071261</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>6200</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G19" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H19" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I19" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J19" s="9">
         <v>1191.806595192317</v>
       </c>
-      <c r="G19" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="K19" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L19" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M19" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N19" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O19" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P19" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R19" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S19" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T19" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U19" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V19" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J19" s="2">
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD19" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="K19" s="5">
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="2">
         <v>9.0743576836987139E-2</v>
       </c>
-      <c r="L19" s="5">
+      <c r="AG19" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M19" s="5">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5">
-        <v>1</v>
+      <c r="AH19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="7">
+        <v>5500</v>
+      </c>
+      <c r="AJ19" s="7">
+        <v>5200</v>
+      </c>
+      <c r="AK19" s="7">
+        <v>5150</v>
+      </c>
+      <c r="AL19" s="7">
+        <v>4950</v>
+      </c>
+      <c r="AM19" s="7">
+        <v>4600</v>
+      </c>
+      <c r="AN19" s="7">
+        <v>4250</v>
+      </c>
+      <c r="AO19" s="7">
+        <v>4500</v>
+      </c>
+      <c r="AP19" s="7">
+        <v>4700</v>
+      </c>
+      <c r="AQ19" s="7">
+        <v>4700</v>
+      </c>
+      <c r="AR19" s="7">
+        <v>4500</v>
+      </c>
+      <c r="AS19" s="7">
+        <v>4750</v>
+      </c>
+      <c r="AT19" s="7">
+        <v>5150</v>
+      </c>
+      <c r="AU19" s="7">
+        <v>5650</v>
+      </c>
+      <c r="AV19" s="7">
+        <v>5750</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43864.75</v>
       </c>
@@ -1408,42 +3435,144 @@
       <c r="C20" s="2">
         <v>0.82674641750007638</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>6200</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G20" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H20" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I20" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J20" s="9">
         <v>1196.1745465368208</v>
       </c>
-      <c r="G20" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="K20" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L20" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M20" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N20" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O20" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P20" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R20" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S20" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T20" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U20" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V20" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J20" s="2">
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD20" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="K20" s="5">
+      <c r="AE20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="2">
         <v>9.9664785323380412E-2</v>
       </c>
-      <c r="L20" s="5">
+      <c r="AG20" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M20" s="5">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5">
-        <v>1</v>
+      <c r="AH20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="7">
+        <v>5650</v>
+      </c>
+      <c r="AJ20" s="7">
+        <v>5450</v>
+      </c>
+      <c r="AK20" s="7">
+        <v>5350</v>
+      </c>
+      <c r="AL20" s="7">
+        <v>5050</v>
+      </c>
+      <c r="AM20" s="7">
+        <v>4600</v>
+      </c>
+      <c r="AN20" s="7">
+        <v>4200</v>
+      </c>
+      <c r="AO20" s="7">
+        <v>4400</v>
+      </c>
+      <c r="AP20" s="7">
+        <v>4600</v>
+      </c>
+      <c r="AQ20" s="7">
+        <v>4600</v>
+      </c>
+      <c r="AR20" s="7">
+        <v>4650</v>
+      </c>
+      <c r="AS20" s="7">
+        <v>4950</v>
+      </c>
+      <c r="AT20" s="7">
+        <v>5400</v>
+      </c>
+      <c r="AU20" s="7">
+        <v>5600</v>
+      </c>
+      <c r="AV20" s="7">
+        <v>5650</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43864.791666666664</v>
       </c>
@@ -1453,42 +3582,144 @@
       <c r="C21" s="2">
         <v>0.85600033994930569</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>6000</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>0.967741935483871</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G21" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H21" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I21" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J21" s="9">
         <v>1191.6053071119252</v>
       </c>
-      <c r="G21" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="K21" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L21" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M21" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N21" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O21" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P21" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R21" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S21" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T21" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U21" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V21" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J21" s="2">
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD21" s="2">
         <v>0.77409432672590561</v>
       </c>
-      <c r="K21" s="5">
+      <c r="AE21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="2">
         <v>9.5766442119242179E-2</v>
       </c>
-      <c r="L21" s="5">
+      <c r="AG21" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M21" s="5">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5">
-        <v>1</v>
+      <c r="AH21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="7">
+        <v>5600</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>5600</v>
+      </c>
+      <c r="AK21" s="7">
+        <v>5550</v>
+      </c>
+      <c r="AL21" s="7">
+        <v>5300</v>
+      </c>
+      <c r="AM21" s="7">
+        <v>4650</v>
+      </c>
+      <c r="AN21" s="7">
+        <v>4150</v>
+      </c>
+      <c r="AO21" s="7">
+        <v>4400</v>
+      </c>
+      <c r="AP21" s="7">
+        <v>4550</v>
+      </c>
+      <c r="AQ21" s="7">
+        <v>4550</v>
+      </c>
+      <c r="AR21" s="7">
+        <v>5100</v>
+      </c>
+      <c r="AS21" s="7">
+        <v>5150</v>
+      </c>
+      <c r="AT21" s="7">
+        <v>5300</v>
+      </c>
+      <c r="AU21" s="7">
+        <v>5450</v>
+      </c>
+      <c r="AV21" s="7">
+        <v>5550</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43864.833333333336</v>
       </c>
@@ -1498,42 +3729,144 @@
       <c r="C22" s="2">
         <v>0.86614578439390577</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>5900</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>0.95161290322580649</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G22" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H22" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I22" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J22" s="9">
         <v>1148.1975325754147</v>
       </c>
-      <c r="G22" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="K22" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L22" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M22" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N22" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O22" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P22" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R22" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S22" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T22" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U22" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V22" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J22" s="2">
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD22" s="2">
         <v>0.69668489405331513</v>
       </c>
-      <c r="K22" s="5">
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="2">
         <v>9.7672774785002081E-2</v>
       </c>
-      <c r="L22" s="5">
+      <c r="AG22" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M22" s="5">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5">
-        <v>1</v>
+      <c r="AH22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="7">
+        <v>5450</v>
+      </c>
+      <c r="AJ22" s="7">
+        <v>5500</v>
+      </c>
+      <c r="AK22" s="7">
+        <v>5350</v>
+      </c>
+      <c r="AL22" s="7">
+        <v>5150</v>
+      </c>
+      <c r="AM22" s="7">
+        <v>5000</v>
+      </c>
+      <c r="AN22" s="7">
+        <v>4200</v>
+      </c>
+      <c r="AO22" s="7">
+        <v>4400</v>
+      </c>
+      <c r="AP22" s="7">
+        <v>4650</v>
+      </c>
+      <c r="AQ22" s="7">
+        <v>4650</v>
+      </c>
+      <c r="AR22" s="7">
+        <v>5000</v>
+      </c>
+      <c r="AS22" s="7">
+        <v>4950</v>
+      </c>
+      <c r="AT22" s="7">
+        <v>5100</v>
+      </c>
+      <c r="AU22" s="7">
+        <v>5250</v>
+      </c>
+      <c r="AV22" s="7">
+        <v>5400</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43864.875</v>
       </c>
@@ -1543,42 +3876,144 @@
       <c r="C23" s="2">
         <v>0.84555554576481062</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>5700</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>0.91935483870967738</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G23" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H23" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I23" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J23" s="9">
         <v>1023.3888583284261</v>
       </c>
-      <c r="G23" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
+      <c r="K23" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L23" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M23" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N23" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O23" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P23" s="12">
+        <v>0.99361702127659579</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R23" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S23" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T23" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U23" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V23" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J23" s="2">
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD23" s="2">
         <v>0.54186602870813394</v>
       </c>
-      <c r="K23" s="5">
+      <c r="AE23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="2">
         <v>9.1718162638021697E-2</v>
       </c>
-      <c r="L23" s="5">
+      <c r="AG23" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M23" s="5">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5">
-        <v>0.99361702127659579</v>
+      <c r="AH23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="7">
+        <v>5200</v>
+      </c>
+      <c r="AJ23" s="7">
+        <v>5150</v>
+      </c>
+      <c r="AK23" s="7">
+        <v>5100</v>
+      </c>
+      <c r="AL23" s="7">
+        <v>4850</v>
+      </c>
+      <c r="AM23" s="7">
+        <v>4650</v>
+      </c>
+      <c r="AN23" s="7">
+        <v>4400</v>
+      </c>
+      <c r="AO23" s="7">
+        <v>4550</v>
+      </c>
+      <c r="AP23" s="7">
+        <v>4900</v>
+      </c>
+      <c r="AQ23" s="7">
+        <v>4900</v>
+      </c>
+      <c r="AR23" s="7">
+        <v>4650</v>
+      </c>
+      <c r="AS23" s="7">
+        <v>4650</v>
+      </c>
+      <c r="AT23" s="7">
+        <v>4850</v>
+      </c>
+      <c r="AU23" s="7">
+        <v>4950</v>
+      </c>
+      <c r="AV23" s="7">
+        <v>5100</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43864.916666666664</v>
       </c>
@@ -1588,42 +4023,144 @@
       <c r="C24" s="2">
         <v>0.80198397643018149</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>5100</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>0.82258064516129037</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G24" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H24" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I24" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J24" s="9">
         <v>967.94405658448113</v>
       </c>
-      <c r="G24" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="K24" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L24" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M24" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N24" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O24" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P24" s="12">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R24" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S24" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T24" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U24" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V24" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J24" s="2">
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD24" s="2">
         <v>0.46445659603554335</v>
       </c>
-      <c r="K24" s="5">
+      <c r="AE24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="2">
         <v>8.9694022897411449E-2</v>
       </c>
-      <c r="L24" s="5">
+      <c r="AG24" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M24" s="5">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5">
-        <v>0.95744680851063835</v>
+      <c r="AH24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="7">
+        <v>4800</v>
+      </c>
+      <c r="AJ24" s="7">
+        <v>4700</v>
+      </c>
+      <c r="AK24" s="7">
+        <v>4650</v>
+      </c>
+      <c r="AL24" s="7">
+        <v>4450</v>
+      </c>
+      <c r="AM24" s="7">
+        <v>4200</v>
+      </c>
+      <c r="AN24" s="7">
+        <v>3950</v>
+      </c>
+      <c r="AO24" s="7">
+        <v>4250</v>
+      </c>
+      <c r="AP24" s="7">
+        <v>4500</v>
+      </c>
+      <c r="AQ24" s="7">
+        <v>4500</v>
+      </c>
+      <c r="AR24" s="7">
+        <v>4200</v>
+      </c>
+      <c r="AS24" s="7">
+        <v>4200</v>
+      </c>
+      <c r="AT24" s="7">
+        <v>4500</v>
+      </c>
+      <c r="AU24" s="7">
+        <v>4600</v>
+      </c>
+      <c r="AV24" s="7">
+        <v>4750</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43864.958333333336</v>
       </c>
@@ -1633,44 +4170,146 @@
       <c r="C25" s="2">
         <v>0.74879352172574998</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>4600</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>0.74193548387096775</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="9">
+        <v>262.15958333333333</v>
+      </c>
+      <c r="G25" s="9">
+        <v>196.547</v>
+      </c>
+      <c r="H25" s="9">
+        <v>311.10250000000002</v>
+      </c>
+      <c r="I25" s="9">
+        <v>128.89916666666667</v>
+      </c>
+      <c r="J25" s="9">
         <v>985.76811610318259</v>
       </c>
-      <c r="G25" s="2">
-        <v>128.89916666666667</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
+      <c r="K25" s="9">
+        <v>431.76375000000002</v>
+      </c>
+      <c r="L25" s="9">
+        <v>392.90016666666668</v>
+      </c>
+      <c r="M25" s="9">
+        <v>108.78895833333333</v>
+      </c>
+      <c r="N25" s="9">
+        <v>92.555416666666659</v>
+      </c>
+      <c r="O25" s="9">
+        <v>206.96554166666664</v>
+      </c>
+      <c r="P25" s="12">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>1286.278</v>
+      </c>
+      <c r="R25" s="9">
+        <v>2500</v>
+      </c>
+      <c r="S25" s="2">
+        <v>68.762375000000006</v>
+      </c>
+      <c r="T25" s="2">
+        <v>49.718250000000005</v>
+      </c>
+      <c r="U25" s="2">
+        <v>174.98304166666665</v>
+      </c>
+      <c r="V25" s="2">
         <v>339.49908333333332</v>
       </c>
-      <c r="J25" s="2">
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2">
+        <v>63.91654166666666</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>244.03616666666665</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>33.48470833333333</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>9.4009166666666655</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>26.797458333333331</v>
+      </c>
+      <c r="AD25" s="2">
         <v>0.46445659603554335</v>
       </c>
-      <c r="K25" s="5">
+      <c r="AE25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="2">
         <v>9.8947233140201138E-2</v>
       </c>
-      <c r="L25" s="5">
+      <c r="AG25" s="2">
         <v>0.73767689318445262</v>
       </c>
-      <c r="M25" s="5">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5">
-        <v>0.95744680851063835</v>
+      <c r="AH25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="7">
+        <v>4350</v>
+      </c>
+      <c r="AJ25" s="7">
+        <v>4350</v>
+      </c>
+      <c r="AK25" s="7">
+        <v>4350</v>
+      </c>
+      <c r="AL25" s="7">
+        <v>4150</v>
+      </c>
+      <c r="AM25" s="7">
+        <v>3850</v>
+      </c>
+      <c r="AN25" s="7">
+        <v>3550</v>
+      </c>
+      <c r="AO25" s="7">
+        <v>3800</v>
+      </c>
+      <c r="AP25" s="7">
+        <v>4000</v>
+      </c>
+      <c r="AQ25" s="7">
+        <v>4000</v>
+      </c>
+      <c r="AR25" s="7">
+        <v>3800</v>
+      </c>
+      <c r="AS25" s="7">
+        <v>3800</v>
+      </c>
+      <c r="AT25" s="7">
+        <v>4100</v>
+      </c>
+      <c r="AU25" s="7">
+        <v>4300</v>
+      </c>
+      <c r="AV25" s="7">
+        <v>4350</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1678,8 +4317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78BF1AA-8309-442F-9F00-C66F48BA8C6A}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,1102 +4339,1102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="H1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>4300</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>4200</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>4150</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>4000</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>3650</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>3500</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>3700</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>3700</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>3700</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>3650</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>3650</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>3850</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>4100</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>4200</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>4200</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>4150</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>4100</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>3900</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>3600</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>3450</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>3550</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>3550</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>3550</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>3550</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>3500</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>3750</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>4000</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>4100</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>4150</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>3950</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>4050</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>3850</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>3550</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>3350</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>3450</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>3450</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>3450</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>3450</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>3400</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>3650</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>3800</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>3900</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>4100</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>4150</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>3900</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>3700</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>3400</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>3200</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>3400</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>3400</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>3400</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>3400</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>3400</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>3750</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>3850</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>3900</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>4300</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>4200</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>4100</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>3950</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>3550</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>3350</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>3150</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>3150</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>3150</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>3500</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>3500</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>3850</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>3900</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>4050</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>4600</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>4500</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>4350</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>4200</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>3800</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>3500</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>3500</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>3500</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>3500</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>3750</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>3800</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>4150</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>4300</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>4400</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>5150</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>5050</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>4900</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>4700</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>4200</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>3950</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>4000</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>4000</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>4000</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>4200</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>4300</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>4700</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>4850</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <v>4950</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>5750</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>5450</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>5300</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>5100</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>4600</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>4350</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>4350</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>4400</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>4400</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>4650</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>4650</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>5150</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>5450</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>5450</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>6100</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>5900</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>5650</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>5400</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>5000</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>4650</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>4700</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>4850</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>4850</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>5000</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>5050</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>5400</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>5750</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <v>5900</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>6200</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>5900</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>5750</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>5500</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>5100</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>4850</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>4850</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>5050</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>5050</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>5050</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>5250</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>5600</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>5800</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>6000</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>5650</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>5500</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>5300</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>4950</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>4650</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>4750</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>4950</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>4950</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>4900</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>5000</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>5350</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <v>5550</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <v>5850</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>5850</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>5500</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>5500</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>5250</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>4900</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>4600</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>4750</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>4950</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>4950</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>4800</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>4950</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>5300</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <v>5450</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <v>5700</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>5800</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>5500</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>5550</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>5300</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>4850</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>4550</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>4800</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>4950</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>4950</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>4800</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>4950</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>5300</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <v>5450</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <v>5650</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>5700</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>5450</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>5500</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>5250</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>4800</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>4550</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>4850</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>5100</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>5100</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>4750</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>5000</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>5200</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <v>5550</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <v>5700</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>5550</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>5350</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>5400</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>5150</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>4700</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>4500</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>4800</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>4950</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>4950</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>4750</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>4950</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>5100</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <v>5450</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <v>5650</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>5400</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>5250</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>5300</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>5100</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>4650</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>4450</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>4700</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>4850</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <v>4850</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <v>4650</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>4850</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>5000</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <v>5350</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <v>5500</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>5300</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>5150</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>5150</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>4950</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>4600</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>4350</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>4600</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>4800</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>4800</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>4550</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>4700</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>5000</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <v>5300</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <v>5450</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>5500</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>5200</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>5150</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>4950</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>4600</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>4250</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>4500</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>4700</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>4700</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <v>4500</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>4750</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>5150</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <v>5650</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <v>5750</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>5650</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>5450</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>5350</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>5050</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>4600</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>4200</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>4400</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>4600</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>4600</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>4650</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <v>4950</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>5400</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="7">
         <v>5600</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <v>5650</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>5600</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>5600</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>5550</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>5300</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>4650</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>4150</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>4400</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <v>4550</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <v>4550</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="7">
         <v>5100</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <v>5150</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>5300</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="7">
         <v>5450</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
         <v>5550</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>5450</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>5500</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>5350</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>5150</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>5000</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>4200</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>4400</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <v>4650</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="7">
         <v>4650</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="7">
         <v>5000</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="7">
         <v>4950</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <v>5100</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="7">
         <v>5250</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="7">
         <v>5400</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>5200</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>5150</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>5100</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>4850</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>4650</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>4400</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>4550</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <v>4900</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <v>4900</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="7">
         <v>4650</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
         <v>4650</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="7">
         <v>4850</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="7">
         <v>4950</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <v>5100</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>4800</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>4700</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>4650</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>4450</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>4200</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>3950</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>4250</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <v>4500</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <v>4500</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="7">
         <v>4200</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7">
         <v>4200</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="7">
         <v>4500</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="7">
         <v>4600</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <v>4750</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>4350</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>4350</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>4350</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>4150</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>3850</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>3550</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <v>3800</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <v>4000</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <v>4000</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="7">
         <v>3800</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="7">
         <v>3800</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="7">
         <v>4100</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="7">
         <v>4300</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="7">
         <v>4350</v>
       </c>
     </row>
